--- a/analysis_output.xlsx
+++ b/analysis_output.xlsx
@@ -8,30 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Work/Reason/Reason Work/Ohio/Ohio-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA162256-E7CB-4246-A8AA-B0D0D5696C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A479C18B-A90E-8442-A98F-D5D9D716B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_stat" sheetId="1" r:id="rId1"/>
-    <sheet name="baseline_ADC" sheetId="3" r:id="rId2"/>
-    <sheet name="two_recession_stat" sheetId="2" r:id="rId3"/>
+    <sheet name="baseline_ADC" sheetId="2" r:id="rId2"/>
+    <sheet name="two_recession_stat" sheetId="3" r:id="rId3"/>
     <sheet name="two_recession_ADC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -74,7 +61,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,11 +101,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -419,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,59 +456,61 @@
       <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>105264324784.92101</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>80860433329</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>82968080150.872498</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.76816560115837496</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="2">
+        <v>24403891456</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1776074436</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B3" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3" s="2">
         <v>105899130206.88699</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>81990717834.016495</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>84168740457.544205</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.77423410063744302</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>23325280363.775902</v>
       </c>
-      <c r="H3" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="2">
         <v>1719769649.9992199</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>25045050013.775101</v>
       </c>
     </row>
@@ -530,31 +518,31 @@
       <c r="A4">
         <v>2024</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="2">
         <v>106689373688.41499</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>83373601968.885605</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>86130577301.378906</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.78146116231197504</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>22192287180.991901</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="2">
         <v>1728158770.24312</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>25640215601.2342</v>
       </c>
     </row>
@@ -562,31 +550,31 @@
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="2">
         <v>107602576742.09801</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>84985222442.884399</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>85239370478.904099</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.78980657355982598</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>21002461878.812698</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="2">
         <v>1736588813.02479</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>26186979112.079899</v>
       </c>
     </row>
@@ -594,31 +582,31 @@
       <c r="A6">
         <v>2026</v>
       </c>
-      <c r="B6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="2">
         <v>108590687936.66901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>86786907117.497604</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>86931247367.748505</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.79921132066234202</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>19753149292.201</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="2">
         <v>1745059977.9663799</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>26682726503.434502</v>
       </c>
     </row>
@@ -626,31 +614,31 @@
       <c r="A7">
         <v>2027</v>
       </c>
-      <c r="B7" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="2">
         <v>109657730253.095</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>88791546275.131699</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>88852728291.286194</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.80971533944936303</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>18442666174.972</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I7" s="2">
         <v>1753572465.66377</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>27125815851.869301</v>
       </c>
     </row>
@@ -658,31 +646,31 @@
       <c r="A8">
         <v>2028</v>
       </c>
-      <c r="B8" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
         <v>110850947934.283</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>91055922904.871994</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>91065180652.925705</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.82142665084699096</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>17069188044.4706</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8" s="2">
         <v>1762126477.6914001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>27514464199.059299</v>
       </c>
     </row>
@@ -690,31 +678,31 @@
       <c r="A9">
         <v>2029</v>
       </c>
-      <c r="B9" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="2">
         <v>112208491925.489</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>93629856018.283096</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>93631665559.144394</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.834427541192309</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>15629560504.0051</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9" s="2">
         <v>1770722216.6069701</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>27845558875.200802</v>
       </c>
     </row>
@@ -722,31 +710,31 @@
       <c r="A10">
         <v>2030</v>
       </c>
-      <c r="B10" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="2">
         <v>113657130924.547</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>96452580935.6082</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>96450816581.683899</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.84862762372243805</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>14120575405.803801</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I10" s="2">
         <v>1779359885.95627</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>28115933662.9557</v>
       </c>
     </row>
@@ -754,31 +742,31 @@
       <c r="A11">
         <v>2031</v>
       </c>
-      <c r="B11" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="2">
         <v>115089270409.84</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>99430057586.021606</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>99426959097.854797</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.86393855162991895</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>12538775831.0065</v>
       </c>
-      <c r="H11" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I11" s="2">
         <v>1788039690.2780099</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>28322173778.436401</v>
       </c>
     </row>
@@ -786,31 +774,31 @@
       <c r="A12">
         <v>2032</v>
       </c>
-      <c r="B12" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="2">
         <v>116607377637.97301</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>102675919273.175</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>102672518607.60899</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.88052678443682697</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>10883233008.2887</v>
       </c>
-      <c r="H12" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I12" s="2">
         <v>1796761835.1086299</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>28463392790.827202</v>
       </c>
     </row>
@@ -818,31 +806,31 @@
       <c r="A13">
         <v>2033</v>
       </c>
-      <c r="B13" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13" s="2">
         <v>118270089890.66901</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>106264193469.226</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>106260728174.414</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.89848746684354597</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>9150231312.8938198</v>
       </c>
-      <c r="H13" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I13" s="2">
         <v>1805526526.98722</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>28535917622.419601</v>
       </c>
     </row>
@@ -850,31 +838,31 @@
       <c r="A14">
         <v>2034</v>
       </c>
-      <c r="B14" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C14" s="2">
         <v>120108550986.33501</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>110243065919.776</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>110239664688.646</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.91786192585338</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>7335539480.06635</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I14" s="2">
         <v>1814333973.46032</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>28535559763.052502</v>
       </c>
     </row>
@@ -882,31 +870,31 @@
       <c r="A15">
         <v>2035</v>
       </c>
-      <c r="B15" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15" s="2">
         <v>121993213587.381</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>114500948847.959</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>114497600014.08099</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.93858457762442504</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>5435041501.7709599</v>
       </c>
-      <c r="H15" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I15" s="2">
         <v>1823184383.0869601</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>28458246167.844002</v>
       </c>
     </row>
@@ -914,31 +902,31 @@
       <c r="A16">
         <v>2036</v>
       </c>
-      <c r="B16" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="2">
         <v>123819045313.894</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>118952023896.612</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>118948654005.308</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.96069246532354402</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>3444523419.35637</v>
       </c>
-      <c r="H16" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I16" s="2">
         <v>1832077965.44348</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>28299806050.872898</v>
       </c>
     </row>
@@ -946,31 +934,31 @@
       <c r="A17">
         <v>2037</v>
       </c>
-      <c r="B17" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" s="2">
         <v>125724589360.662</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>123751130321.409</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>123747747992.756</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.98430331688265205</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1362605494.4367299</v>
       </c>
-      <c r="H17" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I17" s="2">
         <v>1841014931.1285701</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>28058903057.081902</v>
       </c>
     </row>
@@ -978,31 +966,31 @@
       <c r="A18">
         <v>2038</v>
       </c>
-      <c r="B18" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18" s="2">
         <v>127779038487.855</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>128990267467.552</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>128986924772.062</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1.00947908979462</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>-815914040.90337396</v>
       </c>
-      <c r="H18" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H18" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I18" s="2">
         <v>1849995491.7682199</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>27730379013.509998</v>
       </c>
     </row>
@@ -1010,31 +998,31 @@
       <c r="A19">
         <v>2039</v>
       </c>
-      <c r="B19" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19" s="2">
         <v>130017228391.073</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>134728735990.63499</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>134725486480.595</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>1.0362375637280301</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>-3096379505.80195</v>
       </c>
-      <c r="H19" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19" s="2">
         <v>1859019860.02075</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>27308933408.632198</v>
       </c>
     </row>
@@ -1042,31 +1030,31 @@
       <c r="A20">
         <v>2040</v>
       </c>
-      <c r="B20" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20" s="2">
         <v>132268852209.423</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>140821981231.241</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>140818770477.73901</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1.06466472551131</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>-5483974746.9857302</v>
       </c>
-      <c r="H20" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H20" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I20" s="2">
         <v>1868088249.58183</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>26789426417.030201</v>
       </c>
     </row>
@@ -1074,31 +1062,31 @@
       <c r="A21">
         <v>2041</v>
       </c>
-      <c r="B21" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21" s="2">
         <v>134467552185.42101</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>147231066045.061</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>147227819319.479</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>1.0949189127949499</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>-7983931678.2465296</v>
       </c>
-      <c r="H21" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I21" s="2">
         <v>1877200875.1895499</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>26166670360.9589</v>
       </c>
     </row>
@@ -1106,31 +1094,31 @@
       <c r="A22">
         <v>2042</v>
       </c>
-      <c r="B22" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22" s="2">
         <v>136760373668.63699</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>154127875567.91199</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>154124608334.40302</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1.12699220858635</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>-10598881759.1733</v>
       </c>
-      <c r="H22" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H22" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I22" s="2">
         <v>1886357952.6294899</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>25438078232.661701</v>
       </c>
     </row>
@@ -1138,31 +1126,31 @@
       <c r="A23">
         <v>2043</v>
       </c>
-      <c r="B23" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C23" s="2">
         <v>139207458840.77399</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>161605355406.15601</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>161602123880.01401</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>1.1608958079681699</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>-13335400443.9126</v>
       </c>
-      <c r="H23" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="H23" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I23" s="2">
         <v>1895559698.7398801</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>24597119246.6623</v>
       </c>
     </row>
@@ -1170,31 +1158,31 @@
       <c r="A24">
         <v>2044</v>
       </c>
-      <c r="B24" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24" s="2">
         <v>141835683197.69699</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>169724963201.875</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>169721816753.858</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>1.19663091385335</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>-16199897398.028299</v>
       </c>
-      <c r="H24" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H24" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I24" s="2">
         <v>1904806331.4166601</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>23637428623.9632</v>
       </c>
     </row>
@@ -1202,31 +1190,31 @@
       <c r="A25">
         <v>2045</v>
       </c>
-      <c r="B25" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="2">
         <v>144445743228.52802</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>178323918426.24701</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>178320787096.707</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>1.23453910402968</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>-19198668314.3881</v>
       </c>
-      <c r="H25" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H25" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I25" s="2">
         <v>1914098069.6187</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>22552755777.222099</v>
       </c>
     </row>
@@ -1234,31 +1222,31 @@
       <c r="A26">
         <v>2046</v>
       </c>
-      <c r="B26" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="2">
         <v>146953057341.879</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>187356083912.31</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>187352876075.59201</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>1.2749383190880801</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>-22337837625.293598</v>
       </c>
-      <c r="H26" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H26" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I26" s="2">
         <v>1923435133.37293</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>21337021599.689602</v>
       </c>
     </row>
@@ -1266,31 +1254,31 @@
       <c r="A27">
         <v>2047</v>
       </c>
-      <c r="B27" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27" s="2">
         <v>149521585521.14001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>197021253775.582</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>197017983251.43301</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>1.3176776656620399</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>-25620874058.408901</v>
       </c>
-      <c r="H27" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I27" s="2">
         <v>1932817743.7796299</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>19986802910.353901</v>
       </c>
     </row>
@@ -1298,31 +1286,31 @@
       <c r="A28">
         <v>2048</v>
       </c>
-      <c r="B28" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28" s="2">
         <v>152202339138.14999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>207417290114.384</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>207414013271.173</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>1.36277334033689</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>-29056024344.862598</v>
       </c>
-      <c r="H28" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="H28" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I28" s="2">
         <v>1942246123.01758</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>18493898746.917801</v>
       </c>
     </row>
@@ -1330,31 +1318,31 @@
       <c r="A29">
         <v>2049</v>
       </c>
-      <c r="B29" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C29" s="2">
         <v>155013836022.38</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>218611591864.71399</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>218608357079.827</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1.4102714794642801</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>-32651070564.138802</v>
       </c>
-      <c r="H29" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="H29" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I29" s="2">
         <v>1951720494.34938</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>16850573021.9909</v>
       </c>
     </row>
@@ -1362,31 +1350,31 @@
       <c r="A30">
         <v>2050</v>
       </c>
-      <c r="B30" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C30" s="2">
         <v>157753634163.104</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>230453346606.55099</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>230450082230.61899</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>1.4608433449354401</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>-36413670838.358398</v>
       </c>
-      <c r="H30" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I30" s="2">
         <v>1961241082.1266899</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>15049213829.898001</v>
       </c>
     </row>
@@ -1394,31 +1382,31 @@
       <c r="A31">
         <v>2051</v>
       </c>
-      <c r="B31" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" s="2">
         <v>160328122259.966</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>242902888547.91</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>242899500204.41501</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>1.5150360718006299</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>-40351088703.513199</v>
       </c>
-      <c r="H31" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="H31" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I31" s="2">
         <v>1970808111.7955999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>13082604076.538799</v>
       </c>
     </row>
@@ -1426,31 +1414,31 @@
       <c r="A32">
         <v>2052</v>
       </c>
-      <c r="B32" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="2">
         <v>162898987321.91199</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>256174421899.06299</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>256170922759.83801</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>1.57259677368543</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>-44468381141.732903</v>
       </c>
-      <c r="H32" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="H32" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I32" s="2">
         <v>1980421809.9019201</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>10945733448.221001</v>
       </c>
     </row>
@@ -1461,11 +1449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1515,59 +1503,61 @@
       <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>105264324784.92101</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>80860433329</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>82968080150.872498</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.76816560115837496</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="2">
+        <v>24403891456</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1776074436</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B3" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3" s="2">
         <v>105899130206.88699</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>81096319821.083206</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>83273958569.322006</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.76578834653931205</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>24197863791.028</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>7.1329086171159295E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>876211411.138134</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>25074075202.1661</v>
       </c>
     </row>
@@ -1575,31 +1565,31 @@
       <c r="A4">
         <v>2024</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C4" s="2">
         <v>106689373688.41499</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>81503554407.722305</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>84259861792.756897</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.763933197749874</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>23972225371.272301</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>7.1939461145009403E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>888020076.45937204</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>25736456858.869801</v>
       </c>
     </row>
@@ -1607,31 +1597,31 @@
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="2">
         <v>107602576742.09801</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>82022502867.253006</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>82275800399.779297</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.76227266437907704</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>23753641531.4645</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>7.03953611931743E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>873198548.12075698</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>26391071567.182701</v>
       </c>
     </row>
@@ -1639,31 +1629,31 @@
       <c r="A6">
         <v>2026</v>
       </c>
-      <c r="B6" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="2">
         <v>108590687936.66901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>82788144759.5793</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>82931648785.563705</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.76238714693346399</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>23375830628.757999</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>8.1775907826520194E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1019313313.6423399</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>27032573978.118599</v>
       </c>
     </row>
@@ -1671,31 +1661,31 @@
       <c r="A7">
         <v>2027</v>
       </c>
-      <c r="B7" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="2">
         <v>109657730253.095</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>83671677902.387207</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>83732038818.711502</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.763025805014103</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>22967883788.218498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>8.2616296813764201E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>1034811880.7694499</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>27659439018.348598</v>
       </c>
     </row>
@@ -1703,31 +1693,31 @@
       <c r="A8">
         <v>2028</v>
       </c>
-      <c r="B8" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
         <v>110850947934.283</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>84722693348.748093</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>84731137638.950607</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.76429381008970199</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>22530312042.124599</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>8.3375164233045806E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>1049411317.6922801</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>28271278589.946999</v>
       </c>
     </row>
@@ -1735,31 +1725,31 @@
       <c r="A9">
         <v>2029</v>
       </c>
-      <c r="B9" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="2">
         <v>112208491925.489</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>85981682540.469604</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>85982666922.485901</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.76626716093434899</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>22063702962.776699</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>8.3953980977961695E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>1061851280.64483</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>28866520791.243801</v>
       </c>
     </row>
@@ -1767,31 +1757,31 @@
       <c r="A10">
         <v>2030</v>
       </c>
-      <c r="B10" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="2">
         <v>113657130924.547</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>87377253392.546295</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>87374648408.688507</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.76877933378903596</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>21569119365.777401</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>8.4327580981286399E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>1071779391.9845001</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>29443716586.229099</v>
       </c>
     </row>
@@ -1799,31 +1789,31 @@
       <c r="A11">
         <v>2031</v>
       </c>
-      <c r="B11" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="2">
         <v>115089270409.84</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>88806309048.996506</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>88802351521.221893</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.77162978558080597</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>21045512592.903099</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>8.4654105992329406E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>1081177867.56633</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>30001287680.921001</v>
       </c>
     </row>
@@ -1831,31 +1821,31 @@
       <c r="A12">
         <v>2032</v>
       </c>
-      <c r="B12" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="2">
         <v>116607377637.97301</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>90376280528.264206</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>90372001922.943405</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.775047705890894</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>20491691137.616901</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>8.51433814583967E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>1092731273.6896</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>30540197499.324501</v>
       </c>
     </row>
@@ -1863,31 +1853,31 @@
       <c r="A13">
         <v>2033</v>
       </c>
-      <c r="B13" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13" s="2">
         <v>118270089890.66901</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>92151240262.951294</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>92146877972.881805</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.77915929841718401</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>19906344960.085899</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>8.5592137345672101E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>1103849103.4224601</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>31058700425.2159</v>
       </c>
     </row>
@@ -1895,31 +1885,31 @@
       <c r="A14">
         <v>2034</v>
       </c>
-      <c r="B14" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C14" s="2">
         <v>120108550986.33501</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>94168246218.783997</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>94163928244.638504</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.78402616171348005</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>19288066269.781399</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>8.5977640597186294E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>1114229673.52455</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>31554651408.436001</v>
       </c>
     </row>
@@ -1927,31 +1917,31 @@
       <c r="A15">
         <v>2035</v>
       </c>
-      <c r="B15" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15" s="2">
         <v>121993213587.381</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>96304137215.394104</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>96299850756.987793</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.78942208655248902</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>18635379431.970299</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>8.6323581227723101E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>1124170037.0465901</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>32026134607.671501</v>
       </c>
     </row>
@@ -1959,31 +1949,31 @@
       <c r="A16">
         <v>2036</v>
       </c>
-      <c r="B16" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="2">
         <v>123819045313.894</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>98460775216.066696</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>98456445703.559906</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.79519895316959399</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>17946737385.658699</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>8.6637118298899293E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>1133756824.46381</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>32471249385.8237</v>
       </c>
     </row>
@@ -1991,31 +1981,31 @@
       <c r="A17">
         <v>2037</v>
       </c>
-      <c r="B17" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" s="2">
         <v>125724589360.662</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>100784138132.511</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>100779774967.356</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.80162630592011597</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>17220522545.060902</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>8.7140856613706699E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>1145911558.1226299</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>32890946103.348598</v>
       </c>
     </row>
@@ -2023,31 +2013,31 @@
       <c r="A18">
         <v>2038</v>
       </c>
-      <c r="B18" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18" s="2">
         <v>127779038487.855</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>103351424562.18201</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>103347079651.235</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.80882925544948103</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>16455049806.2803</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>8.7556571441263706E-2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>1156994731.72157</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>33282468096.289501</v>
       </c>
     </row>
@@ -2055,31 +2045,31 @@
       <c r="A19">
         <v>2039</v>
       </c>
-      <c r="B19" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19" s="2">
         <v>130017228391.073</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>106206091437.752</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>106201817279.937</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.816861678656149</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>15648561509.0487</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>8.7891659439236103E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>1167088145.9122901</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>33643067944.9702</v>
       </c>
     </row>
@@ -2087,31 +2077,31 @@
       <c r="A20">
         <v>2040</v>
       </c>
-      <c r="B20" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20" s="2">
         <v>132268852209.423</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>109187115899.002</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>109182856410.465</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.82549378841002696</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>14799222450.6413</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>8.8175923843693299E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>1176574337.3459001</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>33970303223.9086</v>
       </c>
     </row>
@@ -2119,31 +2109,31 @@
       <c r="A21">
         <v>2041</v>
       </c>
-      <c r="B21" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21" s="2">
         <v>134467552185.42101</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>112238141538.255</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>112233820480.41499</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.83468568970071</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>13905112479.713699</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>8.84233456565158E-2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>1185631298.9542799</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>34261824551.935398</v>
       </c>
     </row>
@@ -2151,31 +2141,31 @@
       <c r="A22">
         <v>2042</v>
       </c>
-      <c r="B22" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22" s="2">
         <v>136760373668.63699</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>115516979003.196</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>115512612387.192</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.84466703259445697</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>12964226492.000401</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>8.8837552683979498E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>1196995885.6968999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>34517934449.918999</v>
       </c>
     </row>
@@ -2183,31 +2173,31 @@
       <c r="A23">
         <v>2043</v>
       </c>
-      <c r="B23" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C23" s="2">
         <v>139207458840.77399</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>119095348430.132</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>119090991809.239</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.85552418973722999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>11974474715.3009</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>8.9142511630910401E-2</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>1206963946.37146</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>34735146619.590897</v>
       </c>
     </row>
@@ -2215,31 +2205,31 @@
       <c r="A24">
         <v>2044</v>
       </c>
-      <c r="B24" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24" s="2">
         <v>141835683197.69699</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>123012578059.009</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>123008279291.5</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.86728935403052299</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>10933676735.77</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>8.9372003094949595E-2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>1215973981.0474999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>34910322621.107498</v>
       </c>
     </row>
@@ -2247,31 +2237,31 @@
       <c r="A25">
         <v>2045</v>
       </c>
-      <c r="B25" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="2">
         <v>144445743228.52802</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>127082758014.325</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>127078445097.14799</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.87979579857377699</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>9839555765.0204792</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>8.9555112533142897E-2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>1224409057.3155301</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>35040610707.6735</v>
       </c>
     </row>
@@ -2279,31 +2269,31 @@
       <c r="A26">
         <v>2046</v>
       </c>
-      <c r="B26" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="2">
         <v>146953057341.879</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>131235715725.099</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>131231295456.78101</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.89304515400306494</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>8689730813.2316093</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>8.9724303209367695E-2</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>1232706265.0736001</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>35123492020.958298</v>
       </c>
     </row>
@@ -2311,31 +2301,31 @@
       <c r="A27">
         <v>2047</v>
       </c>
-      <c r="B27" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27" s="2">
         <v>149521585521.14001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>135650902705.28999</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>135646389910.479</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.90723290709160898</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>7481715780.1050997</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>9.00846013815952E-2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>1243693685.6547301</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>35159170673.486504</v>
       </c>
     </row>
@@ -2343,31 +2333,31 @@
       <c r="A28">
         <v>2048</v>
       </c>
-      <c r="B28" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28" s="2">
         <v>152202339138.14999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>140395974683.65601</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>140391424895.88501</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.92242980941456998</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>6212918909.6222696</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>9.0310636892672796E-2</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>1252896316.9431601</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>35143270119.9468</v>
       </c>
     </row>
@@ -2375,31 +2365,31 @@
       <c r="A29">
         <v>2049</v>
       </c>
-      <c r="B29" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C29" s="2">
         <v>155013836022.38</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>145507333820.64801</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>145502793506.789</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.93867320204656202</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>4880635646.58463</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>9.0461605165016501E-2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>1261112633.94503</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>35072099490.854202</v>
       </c>
     </row>
@@ -2407,31 +2397,31 @@
       <c r="A30">
         <v>2050</v>
       </c>
-      <c r="B30" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C30" s="2">
         <v>157753634163.104</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>150801754545.27399</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>150797149564.50201</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.95593204774831397</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>3482042054.9594102</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>9.0570764814360202E-2</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>1268793605.6682701</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>34942299504.897202</v>
       </c>
     </row>
@@ -2439,31 +2429,31 @@
       <c r="A31">
         <v>2051</v>
       </c>
-      <c r="B31" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" s="2">
         <v>160328122259.966</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>156206276272.448</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>156201510656.85999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.97429118529290404</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>2014186422.0915599</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>9.0689167251447697E-2</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>1276649617.65101</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>34751093489.680397</v>
       </c>
     </row>
@@ -2471,31 +2461,31 @@
       <c r="A32">
         <v>2052</v>
       </c>
-      <c r="B32" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="2">
         <v>162898987321.91199</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>161904767778.242</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>161899855891.578</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.99389671133003699</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>473986894.90877998</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>9.0989303621510198E-2</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>1287122866.8559</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>34498016829.3535</v>
       </c>
     </row>
@@ -2506,11 +2496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2561,59 +2551,61 @@
       <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>105264324784.92101</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>80860433329</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>82968080150.872498</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.76816560115837496</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="2">
+        <v>24403891456</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1776074436</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>-0.24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>105899130206.88699</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>57636175550.509201</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>78080104886.667297</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.54425541964235202</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>47085809420.856201</v>
       </c>
-      <c r="H3" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="2">
         <v>1719769649.9992199</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>48805579070.8554</v>
       </c>
     </row>
@@ -2621,31 +2613,31 @@
       <c r="A4">
         <v>2024</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>106689373688.41499</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>59539006594.8442</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>73763639519.520706</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.55805938807670796</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>44878398185.433502</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="2">
         <v>1728158770.24312</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>48326326605.675797</v>
       </c>
     </row>
@@ -2653,31 +2645,31 @@
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>107602576742.09801</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>61785526941.875702</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>66529795710.736504</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.57420118376870699</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>42545685454.567001</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I5" s="2">
         <v>1736588813.02479</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>47730202687.834099</v>
       </c>
     </row>
@@ -2685,31 +2677,31 @@
       <c r="A6">
         <v>2026</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>108590687936.66901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>64357845985.825996</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>61955127175.007103</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.59266450198160603</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>40072771686.692001</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="2">
         <v>1745059977.9663799</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>47002348897.925499</v>
       </c>
     </row>
@@ -2717,31 +2709,31 @@
       <c r="A7">
         <v>2027</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.06</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>109657730253.095</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>64167937822.267601</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>63148485338.2024</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.58516565748867</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>40206348082.453903</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I7" s="2">
         <v>1753572465.66377</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>48889497759.351196</v>
       </c>
     </row>
@@ -2749,31 +2741,31 @@
       <c r="A8">
         <v>2028</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.06</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>110850947934.283</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>64085488586.676804</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>64208426281.765099</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.57812305425362298</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>40325709030.643898</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8" s="2">
         <v>1762126477.6914001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>50770985185.232498</v>
       </c>
     </row>
@@ -2781,31 +2773,31 @@
       <c r="A9">
         <v>2029</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.06</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>112208491925.489</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>64148435017.944901</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>65008824122.160301</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.57168966374257901</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>40431255072.447899</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9" s="2">
         <v>1770722216.6069701</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>52647253443.6436</v>
       </c>
     </row>
@@ -2813,31 +2805,31 @@
       <c r="A10">
         <v>2030</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.06</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>113657130924.547</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>64283453330.604202</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>65247158907.472298</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.565591026341144</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>40523276573.659599</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I10" s="2">
         <v>1779359885.95627</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>54518634830.811501</v>
       </c>
     </row>
@@ -2845,31 +2837,31 @@
       <c r="A11">
         <v>2031</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.06</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>115089270409.84</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>64383934383.107803</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>65400197886.556198</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.55942603644833599</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>40601200649.625702</v>
       </c>
-      <c r="H11" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I11" s="2">
         <v>1788039690.2780099</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>56384598597.055603</v>
       </c>
     </row>
@@ -2877,31 +2869,31 @@
       <c r="A12">
         <v>2032</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.06</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>116607377637.97301</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>64550125117.509697</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>65587469409.290703</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.55356810542396595</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>40667042467.218597</v>
       </c>
-      <c r="H12" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I12" s="2">
         <v>1796761835.1086299</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>58247202249.757202</v>
       </c>
     </row>
@@ -2909,31 +2901,31 @@
       <c r="A13">
         <v>2033</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.06</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>118270089890.66901</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>64840949895.090302</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>65885690305.378899</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.54824469952656896</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>40720740263.538101</v>
       </c>
-      <c r="H13" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I13" s="2">
         <v>1805526526.98722</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>60106426573.063904</v>
       </c>
     </row>
@@ -2941,31 +2933,31 @@
       <c r="A14">
         <v>2034</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.06</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>120108550986.33501</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>65287990199.833298</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>66338970994.218002</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.54357487176130603</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>40762150594.287399</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I14" s="2">
         <v>1814333973.46032</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>61962170877.273499</v>
       </c>
     </row>
@@ -2973,31 +2965,31 @@
       <c r="A15">
         <v>2035</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.06</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>121993213587.381</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>65762340036.641899</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>66820018343.4711</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.53906556031116903</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>40791021414.527802</v>
       </c>
-      <c r="H15" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I15" s="2">
         <v>1823184383.0869601</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>63814226080.600899</v>
       </c>
     </row>
@@ -3005,31 +2997,31 @@
       <c r="A16">
         <v>2036</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.06</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>123819045313.894</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>66160782327.920403</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>67225451107.066002</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.53433445686966996</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>40806320775.453201</v>
       </c>
-      <c r="H16" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I16" s="2">
         <v>1832077965.44348</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>65661603406.969704</v>
       </c>
     </row>
@@ -3037,31 +3029,31 @@
       <c r="A17">
         <v>2037</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.06</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>125724589360.662</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>66619416523.802002</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>67691142368.084503</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.52988374718562703</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>40810086074.867302</v>
       </c>
-      <c r="H17" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I17" s="2">
         <v>1841014931.1285701</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>67506383637.512497</v>
       </c>
     </row>
@@ -3069,31 +3061,31 @@
       <c r="A18">
         <v>2038</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>127779038487.855</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>47745543568.694702</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>63422711176.974701</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.373657089094726</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>53912557692.807701</v>
       </c>
-      <c r="H18" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H18" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I18" s="2">
         <v>1849995491.7682199</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>82458850747.2211</v>
       </c>
     </row>
@@ -3101,31 +3093,31 @@
       <c r="A19">
         <v>2039</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>130017228391.073</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>49645756313.534698</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>59353563283.706398</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.38183982944327599</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>52819734179.1661</v>
       </c>
-      <c r="H19" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19" s="2">
         <v>1859019860.02075</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>83225047093.600204</v>
       </c>
     </row>
@@ -3133,31 +3125,31 @@
       <c r="A20">
         <v>2040</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.11</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>132268852209.423</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>51707207491.1175</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>55442458657.220299</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.39092504869739803</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>51653380193.823502</v>
       </c>
-      <c r="H20" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H20" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I20" s="2">
         <v>1868088249.58183</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>83926781357.839493</v>
       </c>
     </row>
@@ -3165,31 +3157,31 @@
       <c r="A21">
         <v>2041</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>134467552185.42101</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>53882680760.200897</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>51762456248.861</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.40071139754147</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>50408070601.447701</v>
       </c>
-      <c r="H21" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I21" s="2">
         <v>1877200875.1895499</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>84558672640.653198</v>
       </c>
     </row>
@@ -3197,31 +3189,31 @@
       <c r="A22">
         <v>2042</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.06</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>136760373668.63699</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>53722245516.485901</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>52817555015.153999</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.392820259811897</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>50675756760.645401</v>
       </c>
-      <c r="H22" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H22" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I22" s="2">
         <v>1886357952.6294899</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>86712716752.480301</v>
       </c>
     </row>
@@ -3229,31 +3221,31 @@
       <c r="A23">
         <v>2043</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.06</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>139207458840.77399</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>53649619286.159203</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>53741999117.321198</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.385393280883922</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>50939964306.301598</v>
       </c>
-      <c r="H23" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="H23" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I23" s="2">
         <v>1895559698.7398801</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>88872483996.876404</v>
       </c>
     </row>
@@ -3261,31 +3253,31 @@
       <c r="A24">
         <v>2044</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.06</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>141835683197.69699</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>53690783855.394798</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>54406786783.216698</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.37854214570643702</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>51200257779.725098</v>
       </c>
-      <c r="H24" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H24" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I24" s="2">
         <v>1904806331.4166601</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>91037583801.716599</v>
       </c>
     </row>
@@ -3293,31 +3285,31 @@
       <c r="A25">
         <v>2045</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.06</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>144445743228.52802</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>53645810163.500504</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>54450356778.304802</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.37139073097244202</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>51456071282.181297</v>
       </c>
-      <c r="H25" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H25" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I25" s="2">
         <v>1914098069.6187</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>93207495373.791504</v>
       </c>
     </row>
@@ -3325,31 +3317,31 @@
       <c r="A26">
         <v>2046</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.06</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>146953057341.879</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>53430211692.125702</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>54277626264.204597</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.36358693489325</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>51706476413.044296</v>
       </c>
-      <c r="H26" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H26" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I26" s="2">
         <v>1923435133.37293</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>95381335638.027405</v>
       </c>
     </row>
@@ -3357,31 +3349,31 @@
       <c r="A27">
         <v>2047</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.06</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>149521585521.14001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>53202426579.671898</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>54063807794.374802</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.35581769945952002</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>51953647916.697403</v>
       </c>
-      <c r="H27" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H27" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I27" s="2">
         <v>1932817743.7796299</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>97561324885.460205</v>
       </c>
     </row>
@@ -3389,31 +3381,31 @@
       <c r="A28">
         <v>2048</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.06</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>152202339138.14999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>53015024590.144203</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>53877284484.936501</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.34831938122858802</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>52195808838.965897</v>
       </c>
-      <c r="H28" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="H28" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I28" s="2">
         <v>1942246123.01758</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>99745731930.746307</v>
       </c>
     </row>
@@ -3421,31 +3413,31 @@
       <c r="A29">
         <v>2049</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.06</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>155013836022.38</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>52886590935.681396</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>53747474338.510902</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.34117335776430902</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>52432099870.215698</v>
       </c>
-      <c r="H29" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="H29" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I29" s="2">
         <v>1951720494.34938</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>101933743456.345</v>
       </c>
     </row>
@@ -3453,31 +3445,31 @@
       <c r="A30">
         <v>2050</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.06</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>157753634163.104</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>52614940830.603699</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>53473277452.400002</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.3335260142166</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>52661635688.902397</v>
       </c>
-      <c r="H30" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H30" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I30" s="2">
         <v>1961241082.1266899</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>104124520357.159</v>
       </c>
     </row>
@@ -3485,31 +3477,31 @@
       <c r="A31">
         <v>2051</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.06</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>160328122259.966</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>52106891856.595802</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>52960777073.7202</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.32500157253826301</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>52883521975.4935</v>
       </c>
-      <c r="H31" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="H31" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I31" s="2">
         <v>1970808111.7955999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>106317214755.545</v>
       </c>
     </row>
@@ -3517,39 +3509,33 @@
       <c r="A32">
         <v>2052</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.06</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>162898987321.91199</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>51519115159.489899</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>52366208646.298698</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.31626418313872301</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>53099539329.826599</v>
       </c>
-      <c r="H32" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="H32" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I32" s="2">
         <v>1980421809.9019201</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>108513653919.78101</v>
       </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3612,59 +3598,61 @@
       <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>105264324784.92101</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>80860433329</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>82968080150.872498</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.76816560115837496</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="2">
+        <v>24403891456</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1776074436</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>-0.24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>105899130206.88699</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>56882393601.691002</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>77220477014.473999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.53713749575246095</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>47821206444.093498</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>7.1329086171159295E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>876211411.138134</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>48697417855.231598</v>
       </c>
     </row>
@@ -3672,31 +3660,31 @@
       <c r="A4">
         <v>2024</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>106689373688.41499</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>58134433552.283997</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>72313064172.659607</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.54489431836074698</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>46215291027.846497</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.8438808818717805E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>1215127791.37395</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>48306630230.358597</v>
       </c>
     </row>
@@ -3704,31 +3692,31 @@
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>107602576742.09801</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>59968222605.015503</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>64736718671.461899</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.55731214270776797</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>44233233191.237198</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.12165145128195599</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>1508989638.46053</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>47833562032.209801</v>
       </c>
     </row>
@@ -3736,31 +3724,31 @@
       <c r="A6">
         <v>2026</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>108590687936.66901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>62566464317.329697</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>60253495803.915497</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.57616786030325995</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>41695675064.348602</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.155578833942078</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1939245689.5071299</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>47235249594.8284</v>
       </c>
     </row>
@@ -3768,31 +3756,31 @@
       <c r="A7">
         <v>2027</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.06</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>109657730253.095</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>62798649658.772697</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>61822153798.0429</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.57267872966028499</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>41416599296.731796</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.17629616041260299</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>2208200662.1556101</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>49164374489.367104</v>
       </c>
     </row>
@@ -3800,31 +3788,31 @@
       <c r="A8">
         <v>2028</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.06</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>110850947934.283</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>63133485159.874298</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>63263571369.007698</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.56953491455303196</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>41146618601.959396</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.17323379356246901</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>2180427531.9096699</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>51074821326.504402</v>
       </c>
     </row>
@@ -3832,31 +3820,31 @@
       <c r="A9">
         <v>2029</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.06</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>112208491925.489</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>63626500981.388702</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>64475822061.0196</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.56703819728402605</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>40870340032.4095</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.171474266242789</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>2168809234.3748999</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>52967351991.329399</v>
       </c>
     </row>
@@ -3864,31 +3852,31 @@
       <c r="A10">
         <v>2030</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.06</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>113657130924.547</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>64231982536.296303</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>65187944374.065903</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.56513816611240897</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>40565521051.584801</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.17147263551360001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>2179368065.5150099</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>54841901076.019699</v>
       </c>
     </row>
@@ -3896,31 +3884,31 @@
       <c r="A11">
         <v>2031</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.06</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>115089270409.84</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>64884904400.551598</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>65899291733.556702</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.56377891848208095</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>40200059748.262604</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.17382906084802299</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>2220094715.1429801</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>56696534487.8405</v>
       </c>
     </row>
@@ -3928,31 +3916,31 @@
       <c r="A12">
         <v>2032</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.06</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>116607377637.97301</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>65698715242.2761</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>66742266642.018997</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.56341816935673406</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>39769765697.5131</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.176511227496015</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>2265347407.3786998</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>58531587844.469704</v>
       </c>
     </row>
@@ -3960,31 +3948,31 @@
       <c r="A13">
         <v>2033</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.06</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>118270089890.66901</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>66741883839.8554</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>67802810412.295601</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.56431752019088299</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>39271953376.282799</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.179228503441235</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>2311441552.5383501</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>60345217075.777802</v>
       </c>
     </row>
@@ -3992,31 +3980,31 @@
       <c r="A14">
         <v>2034</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.06</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>120108550986.33501</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>68054699517.947304</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>69133564042.692993</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.56660994541254694</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>38704947598.594002</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.181891625015145</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>2357229676.8063102</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>62135440974.895302</v>
       </c>
     </row>
@@ -4024,31 +4012,31 @@
       <c r="A15">
         <v>2035</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.06</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>121993213587.381</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>69517299914.411499</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>70616387498.0047</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.56984563214754302</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>38067097009.430603</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.184487406363259</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>2402532558.2693601</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>63900122944.001198</v>
       </c>
     </row>
@@ -4056,31 +4044,31 @@
       <c r="A16">
         <v>2036</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.06</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>123819045313.894</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>71036233043.925995</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>72157792150.700897</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.57371006910804401</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>37355831712.148697</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.18702337893586099</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>2447438654.0798402</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>65636296300.799103</v>
       </c>
     </row>
@@ -4088,31 +4076,31 @@
       <c r="A17">
         <v>2037</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.06</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>125724589360.662</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>72762422803.945007</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>73908641124.971298</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.57874456519570405</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>36568551822.983002</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.189725267843183</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>2494907506.51191</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>67343923918.145401</v>
       </c>
     </row>
@@ -4120,31 +4108,31 @@
       <c r="A18">
         <v>2038</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>-0.24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>127779038487.855</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>53308954095.711502</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>70584155570.443893</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.41719639407662701</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>50164905646.504799</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.19231890688995801</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>2541350790.9158101</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>83481628532.582993</v>
       </c>
     </row>
@@ -4152,31 +4140,31 @@
       <c r="A19">
         <v>2039</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>130017228391.073</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>57309058306.703903</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>67967198097.6119</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.44078049513812601</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>47783449988.385498</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.209896480633494</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>2787155186.0437698</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>83887328060.507401</v>
       </c>
     </row>
@@ -4184,31 +4172,31 @@
       <c r="A20">
         <v>2040</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.11</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>132268852209.423</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>62094881529.838699</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>66076080226.992203</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.469459593037997</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>44993157722.848396</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.22580700776198301</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>3013052984.8099599</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>84110088779.780304</v>
       </c>
     </row>
@@ -4216,31 +4204,31 @@
       <c r="A21">
         <v>2041</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>134467552185.42101</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>67664986616.842499</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>65045477300.114601</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.503206799834782</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>41786856291.798698</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.23971680728306399</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>3214261431.6386499</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>84118048780.369293</v>
       </c>
     </row>
@@ -4248,31 +4236,31 @@
       <c r="A22">
         <v>2042</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.06</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>136760373668.63699</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>70865885506.044006</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>69761110218.977997</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.51817557677743997</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>40213491420.185402</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.25149313439561399</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>3388614814.9920301</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>85933298723.748001</v>
       </c>
     </row>
@@ -4280,31 +4268,31 @@
       <c r="A23">
         <v>2043</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.06</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>139207458840.77399</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>74379520202.186203</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>74548737781.494202</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.53430700352961702</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>38597665596.649002</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>0.24923864580854099</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>3374619516.8798199</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>87692092417.0914</v>
       </c>
     </row>
@@ -4312,31 +4300,31 @@
       <c r="A24">
         <v>2044</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.06</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>141835683197.69699</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>78266636246.195801</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>79266986399.952393</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.55181202981977395</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>36925013415.567001</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.24790282237577499</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>3372906183.1245499</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>89392346419.134003</v>
       </c>
     </row>
@@ -4344,31 +4332,31 @@
       <c r="A25">
         <v>2045</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.06</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>144445743228.52802</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>82376434469.225906</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>83546787533.641006</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.57029326464053798</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>35174505840.957497</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.24790276718360901</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>3389358629.42342</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>91031197473.947906</v>
       </c>
     </row>
@@ -4376,31 +4364,31 @@
       <c r="A26">
         <v>2046</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.06</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>146953057341.879</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>86689388281.608398</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>87979109055.537796</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.58991211104870001</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>33318297376.2155</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.24962598263451199</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>3429567037.1568799</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>92604556046.362701</v>
       </c>
     </row>
@@ -4408,31 +4396,31 @@
       <c r="A27">
         <v>2047</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.06</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>149521585521.14001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>91401303435.232407</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>92780826489.428497</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.61129169488581703</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>31349533213.276199</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.25172425018391298</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>3475264980.6792102</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>94111056864.1026</v>
       </c>
     </row>
@@ -4440,31 +4428,31 @@
       <c r="A28">
         <v>2048</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.06</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>152202339138.14999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>96595019529.726898</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>98054690069.703293</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.63464871878250295</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>29262502342.7141</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.25381364269256801</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>3521204024.9186401</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>95545230018.459198</v>
       </c>
     </row>
@@ -4472,31 +4460,31 @@
       <c r="A29">
         <v>2049</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.06</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>155013836022.38</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>102321787601.461</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>103865780480.048</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.66008164320692297</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>27052083338.060101</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>0.25590762592363703</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>3567572558.3961101</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>96902383572.201294</v>
       </c>
     </row>
@@ -4504,31 +4492,31 @@
       <c r="A30">
         <v>2050</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.06</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>157753634163.104</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>108414510515.327</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>110048942168.495</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.68723938494650005</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>24712870898.365799</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.25801376056561898</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <v>3614479906.9663601</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>98177651039.473404</v>
       </c>
     </row>
@@ -4536,31 +4524,31 @@
       <c r="A31">
         <v>2051</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.06</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>160328122259.966</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>114818996923.446</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>116549982289.783</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.71615007588794199</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>22238546178.499199</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.26018347059369001</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="2">
         <v>3662654960.0083899</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="2">
         <v>99365981279.615097</v>
       </c>
     </row>
@@ -4568,37 +4556,33 @@
       <c r="A32">
         <v>2052</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.06</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>162898987321.91199</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>121739007554.562</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>123572924477.22701</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.74732820354486496</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>19622719276.280899</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.26259149451527403</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="2">
         <v>3714585163.0913501</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>100464739540.48801</v>
       </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="3"/>
-      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
